--- a/exercicios/1.1-exercicio-pessoas/Modelagem/Modelagem Fisica.xlsx
+++ b/exercicios/1.1-exercicio-pessoas/Modelagem/Modelagem Fisica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoww\OneDrive\Área de Trabalho\Senai\2T\senai_sprint1_bd\exercicios\1.1-exercicio-pessoas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.1-exercicio-pessoas/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193B7C16-39B3-43FE-BF33-D6F4D4CA7C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{193B7C16-39B3-43FE-BF33-D6F4D4CA7C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36266A31-018B-42B5-A2C8-305355FE1D82}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16284" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>pessoa</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>ol@hotmail.com</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -140,14 +146,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -432,135 +443,144 @@
   <dimension ref="B3:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>7775</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>556879</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>6665</v>
       </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
         <v>654987</v>
       </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F7" s="2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
         <v>123987</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
